--- a/leica_matrixscreener/02_DMI6000_PC/renamed_deflate/settings_jobs.xlsx
+++ b/leica_matrixscreener/02_DMI6000_PC/renamed_deflate/settings_jobs.xlsx
@@ -1,827 +1,827 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="J07" r:id="rId3" sheetId="1"/>
-    <sheet name="J08" r:id="rId4" sheetId="2"/>
+    <sheet name="J07" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="J08" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="266">
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>J07</t>
-  </si>
-  <si>
-    <t>BlockType</t>
-  </si>
-  <si>
-    <t>BlockID</t>
-  </si>
-  <si>
-    <t>BlockIsUsingCameraImageSource</t>
-  </si>
-  <si>
-    <t>LDM_Block.BlockName</t>
-  </si>
-  <si>
-    <t>VersionNumber</t>
-  </si>
-  <si>
-    <t>SpimMirrorMode</t>
-  </si>
-  <si>
-    <t>MirrorX</t>
-  </si>
-  <si>
-    <t>MirrorY</t>
-  </si>
-  <si>
-    <t>TheoCamSensorPixelSizeX</t>
-  </si>
-  <si>
-    <t>TheoCamSensorPixelSizeY</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Brightness</t>
-  </si>
-  <si>
-    <t>WhiteValue</t>
-  </si>
-  <si>
-    <t>BlackValue</t>
-  </si>
-  <si>
-    <t>GainValue</t>
-  </si>
-  <si>
-    <t>GainStringValue</t>
-  </si>
-  <si>
-    <t>CanDoEMGain</t>
-  </si>
-  <si>
-    <t>CanDoColorSat</t>
-  </si>
-  <si>
-    <t>EMGainValue</t>
-  </si>
-  <si>
-    <t>OffsetValue</t>
-  </si>
-  <si>
-    <t>ColorSat</t>
-  </si>
-  <si>
-    <t>AutoBright</t>
-  </si>
-  <si>
-    <t>AutoExposure</t>
-  </si>
-  <si>
-    <t>AutoContrastGamma</t>
-  </si>
-  <si>
-    <t>BinningText</t>
-  </si>
-  <si>
-    <t>LiveBinningText</t>
-  </si>
-  <si>
-    <t>ScanMode</t>
-  </si>
-  <si>
-    <t>ZUseMode</t>
-  </si>
-  <si>
-    <t>ZUseModeName</t>
-  </si>
-  <si>
-    <t>ZPosition</t>
-  </si>
-  <si>
-    <t>IsSuperZ</t>
-  </si>
-  <si>
-    <t>Begin</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Sections</t>
-  </si>
-  <si>
-    <t>CycleCount</t>
-  </si>
-  <si>
-    <t>CycleTime</t>
-  </si>
-  <si>
-    <t>UseMaxIterationsForT</t>
-  </si>
-  <si>
-    <t>CompleteTime</t>
-  </si>
-  <si>
-    <t>IsTimeMinimizeEnabled</t>
-  </si>
-  <si>
-    <t>LastTCalcMode</t>
-  </si>
-  <si>
-    <t>ValidBeginStack</t>
-  </si>
-  <si>
-    <t>ValidEndStack</t>
-  </si>
-  <si>
-    <t>StackCalculationMode</t>
-  </si>
-  <si>
-    <t>StackCalculationModeName</t>
-  </si>
-  <si>
-    <t>ZStackDirectionMode</t>
-  </si>
-  <si>
-    <t>ZStackDirectionModeName</t>
-  </si>
-  <si>
-    <t>IsLinkedShadingEnabled</t>
-  </si>
-  <si>
-    <t>StageUseMode</t>
-  </si>
-  <si>
-    <t>StagePosX</t>
-  </si>
-  <si>
-    <t>StagePosY</t>
-  </si>
-  <si>
-    <t>StageRangeX</t>
-  </si>
-  <si>
-    <t>StageRangeY</t>
-  </si>
-  <si>
-    <t>StageOrderNumber</t>
-  </si>
-  <si>
-    <t>FlipX</t>
-  </si>
-  <si>
-    <t>FlipY</t>
-  </si>
-  <si>
-    <t>SwapXY</t>
-  </si>
-  <si>
-    <t>Magnification</t>
-  </si>
-  <si>
-    <t>CanDoTotalVideoMag</t>
-  </si>
-  <si>
-    <t>TotalVideoMag</t>
-  </si>
-  <si>
-    <t>AutofocusChannel</t>
-  </si>
-  <si>
-    <t>IsAutofocusOnStart</t>
-  </si>
-  <si>
-    <t>AutofocusRedoEveryNTimePoints</t>
-  </si>
-  <si>
-    <t>ObjectiveName</t>
-  </si>
-  <si>
-    <t>ObjectiveNumber</t>
-  </si>
-  <si>
-    <t>ObjectivePos</t>
-  </si>
-  <si>
-    <t>MicroscopeModel</t>
-  </si>
-  <si>
-    <t>IsInverseMicroscopeModel</t>
-  </si>
-  <si>
-    <t>ShutterMode</t>
-  </si>
-  <si>
-    <t>ShutterModeSoftware</t>
-  </si>
-  <si>
-    <t>CanDoIndustryShuttering</t>
-  </si>
-  <si>
-    <t>Immersion</t>
-  </si>
-  <si>
-    <t>NumericalAperture</t>
-  </si>
-  <si>
-    <t>RefractionIndex</t>
-  </si>
-  <si>
-    <t>TubeOpticName</t>
-  </si>
-  <si>
-    <t>TubeOpticPos</t>
-  </si>
-  <si>
-    <t>TubeOpticPortMagPos</t>
-  </si>
-  <si>
-    <t>CanDoChangeSpeedAndPort</t>
-  </si>
-  <si>
-    <t>SpeedandPortIndex</t>
-  </si>
-  <si>
-    <t>SpeedandPort</t>
-  </si>
-  <si>
-    <t>CanDoColorCapture</t>
-  </si>
-  <si>
-    <t>CanDoMicroScanning</t>
-  </si>
-  <si>
-    <t>CanDoDualLightMode</t>
-  </si>
-  <si>
-    <t>CanDoLiveBinning</t>
-  </si>
-  <si>
-    <t>CanDoControlCooler</t>
-  </si>
-  <si>
-    <t>CanDoControlTemperature</t>
-  </si>
-  <si>
-    <t>CanDoFanControl</t>
-  </si>
-  <si>
-    <t>CanDoHotSpotCorrection</t>
-  </si>
-  <si>
-    <t>CanDoBrightnessCorrection</t>
-  </si>
-  <si>
-    <t>SCMOSReadoutMode</t>
-  </si>
-  <si>
-    <t>ProgressiveReadoutModePreDelay</t>
-  </si>
-  <si>
-    <t>ProgressiveReadoutModeTimeOnChip</t>
-  </si>
-  <si>
-    <t>ProgressiveReadoutModeNumStripes</t>
-  </si>
-  <si>
-    <t>CanDoEnhancedAcquisitionMode</t>
-  </si>
-  <si>
-    <t>CurrentLightSheetFilterPosition</t>
-  </si>
-  <si>
-    <t>BinningValuePrecise</t>
-  </si>
-  <si>
-    <t>BinningXValuePrecise</t>
-  </si>
-  <si>
-    <t>BinningYValuePrecise</t>
-  </si>
-  <si>
-    <t>ZStackUseMode</t>
-  </si>
-  <si>
-    <t>NbStepsForEDOF</t>
-  </si>
-  <si>
-    <t>MaxNbStepsForStartUp</t>
-  </si>
-  <si>
-    <t>CalcEDoFfromZStack</t>
-  </si>
-  <si>
-    <t>CalcEDoFfromZStackForStartUp</t>
-  </si>
-  <si>
-    <t>EnhancedAcquisitionHDREnable</t>
-  </si>
-  <si>
-    <t>EnhancedAcquisitionHDRAutomatic</t>
-  </si>
-  <si>
-    <t>EnhancedAcquisitionHDRContrast</t>
-  </si>
-  <si>
-    <t>EnhancedAcquisitionHDRBrightness</t>
-  </si>
-  <si>
-    <t>PortCameraPercentage</t>
-  </si>
-  <si>
-    <t>xDim</t>
-  </si>
-  <si>
-    <t>yDim</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>IsGray</t>
-  </si>
-  <si>
-    <t>Binning</t>
-  </si>
-  <si>
-    <t>LiveBinning</t>
-  </si>
-  <si>
-    <t>ColorCaptureMode</t>
-  </si>
-  <si>
-    <t>SimAcqMode</t>
-  </si>
-  <si>
-    <t>MicroscopeFamilyType</t>
-  </si>
-  <si>
-    <t>CameraName</t>
-  </si>
-  <si>
-    <t>CameraType</t>
-  </si>
-  <si>
-    <t>CameraNamePure</t>
-  </si>
-  <si>
-    <t>CameraColorCaptureMode</t>
-  </si>
-  <si>
-    <t>MaxChannelCount</t>
-  </si>
-  <si>
-    <t>CurrentChannelIndex</t>
-  </si>
-  <si>
-    <t>IsSequencerBoard</t>
-  </si>
-  <si>
-    <t>IsSequencerAdvancedBoard</t>
-  </si>
-  <si>
-    <t>IsTriggerCamera</t>
-  </si>
-  <si>
-    <t>IsAutoZControl</t>
-  </si>
-  <si>
-    <t>IsAutoTimeControl</t>
-  </si>
-  <si>
-    <t>IsAutoFluoControl</t>
-  </si>
-  <si>
-    <t>IsAutoIntensityControl</t>
-  </si>
-  <si>
-    <t>IsAutoExposureTimeControl</t>
-  </si>
-  <si>
-    <t>IsAutoWaveLength</t>
-  </si>
-  <si>
-    <t>eZUseMode</t>
-  </si>
-  <si>
-    <t>eStackFlowMode</t>
-  </si>
-  <si>
-    <t>IsUseSameExposureTime</t>
-  </si>
-  <si>
-    <t>SameExposureTime</t>
-  </si>
-  <si>
-    <t>IsHighSpeedModeActive</t>
-  </si>
-  <si>
-    <t>IsSequencerUseEnabled</t>
-  </si>
-  <si>
-    <t>IsSequencerAdvancedUseEnabled</t>
-  </si>
-  <si>
-    <t>EStageAFCModeForSeqAdv</t>
-  </si>
-  <si>
-    <t>IsSimpleOperation</t>
-  </si>
-  <si>
-    <t>FastFilterWheel1</t>
-  </si>
-  <si>
-    <t>FastFilterWheel2</t>
-  </si>
-  <si>
-    <t>FastFilterWheel3</t>
-  </si>
-  <si>
-    <t>FastFilterWheel4</t>
-  </si>
-  <si>
-    <t>CanDoTIRF</t>
-  </si>
-  <si>
-    <t>TIRFPenetrationDepthMode</t>
-  </si>
-  <si>
-    <t>SameTIRFPenetrationDepthIndex</t>
-  </si>
-  <si>
-    <t>SameTIRFApertureValue</t>
-  </si>
-  <si>
-    <t>TIRFManualMode</t>
-  </si>
-  <si>
-    <t>IsTIRFFastIlluminationSwitchingActive</t>
-  </si>
-  <si>
-    <t>InTrigger</t>
-  </si>
-  <si>
-    <t>OutTrigger</t>
-  </si>
-  <si>
-    <t>InTriggerMode</t>
-  </si>
-  <si>
-    <t>OutTriggerMode</t>
-  </si>
-  <si>
-    <t>m_sInTrigger</t>
-  </si>
-  <si>
-    <t>m_sInTriggerMode</t>
-  </si>
-  <si>
-    <t>m_sInTriggerShowInGraph</t>
-  </si>
-  <si>
-    <t>m_sInTriggerRecordInEventlist</t>
-  </si>
-  <si>
-    <t>m_sInTriggerDescription</t>
-  </si>
-  <si>
-    <t>m_sOutTrigger</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerMode</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerShowInGraph</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerRecordInEventlist</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerDescription</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnStart</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnStartMode</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnStartShowInGraph</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnStartRecordInEventlist</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnStartDescription</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnEnd</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnEndMode</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnEndShowInGraph</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnEndRecordInEventlist</t>
-  </si>
-  <si>
-    <t>m_sOutTriggerOnEndDescription</t>
-  </si>
-  <si>
-    <t>WFCCCameranRoiLeftHightX</t>
-  </si>
-  <si>
-    <t>WFCCCameranRoiLeftHightY</t>
-  </si>
-  <si>
-    <t>WFCCCameranRoiRightButtomX</t>
-  </si>
-  <si>
-    <t>WFCCCameranRoiRightButtomY</t>
-  </si>
-  <si>
-    <t>WFCCCameranRoiIsUsed</t>
-  </si>
-  <si>
-    <t>ILLEDCanDoChangeWavelength</t>
-  </si>
-  <si>
-    <t>ILLEDCanDoCombineWavelengths</t>
-  </si>
-  <si>
-    <t>ILLEDMaxWavelengths</t>
-  </si>
-  <si>
-    <t>ILLEDCanDoCombiLightSource</t>
-  </si>
-  <si>
-    <t>ILLEDUIMode</t>
-  </si>
-  <si>
-    <t>ILLEDCodedSliderPos</t>
-  </si>
-  <si>
-    <t>ExtensionMode</t>
-  </si>
-  <si>
-    <t>GISTAutoExpoControlConfig_IsEnabled</t>
-  </si>
-  <si>
-    <t>GISTAutoExpoControlConfig_MaxRegulatorValue</t>
-  </si>
-  <si>
-    <t>GISTAutoExpoControlConfig_MinRegulatorValue</t>
-  </si>
-  <si>
-    <t>GISTAutoExpoControlConfig_OverexposuredPixelsThreshold</t>
-  </si>
-  <si>
-    <t>CanDoOnlineShadingCorrection</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrectionDefinitionState</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrectionActivationState</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrectionNotificationsEnabled</t>
-  </si>
-  <si>
-    <t>CanDoDIC</t>
-  </si>
-  <si>
-    <t>CanDoCondenser</t>
-  </si>
-  <si>
-    <t>OnlineShadingCorrection</t>
-  </si>
-  <si>
-    <t>ObjectiveArtNo</t>
-  </si>
-  <si>
-    <t>bIsDiaphragmStoreModeEnabled</t>
-  </si>
-  <si>
-    <t>bIsDICStoreModeEnabled</t>
-  </si>
-  <si>
-    <t>IsSimAcqActive</t>
-  </si>
-  <si>
-    <t>CanDoStageRotation</t>
-  </si>
-  <si>
-    <t>StageRotationAngle</t>
-  </si>
-  <si>
-    <t>CanDoColumnTilt</t>
-  </si>
-  <si>
-    <t>ColumnTiltAngle</t>
-  </si>
-  <si>
-    <t>LASXversion</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>AF Job</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0.0000065</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>65535</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>xy</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>z-wide</t>
-  </si>
-  <si>
-    <t>0.003611539</t>
-  </si>
-  <si>
-    <t>4.03782248933575E-02</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>System optimized step size</t>
-  </si>
-  <si>
-    <t>Unidirectional</t>
-  </si>
-  <si>
-    <t>0.11608065834011</t>
-  </si>
-  <si>
-    <t>0.05824085396973</t>
-  </si>
-  <si>
-    <t>0.1270018881</t>
-  </si>
-  <si>
-    <t>0.08300777</t>
-  </si>
-  <si>
-    <t>11522100</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>HC PL APO CS    10x/0.40 DRY  UV</t>
-  </si>
-  <si>
-    <t>11506285</t>
-  </si>
-  <si>
-    <t>DMI6000B-CS</t>
-  </si>
-  <si>
-    <t>DRY</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>2.098E+08</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Hamamatsu-Flash4-CL-100392</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Hamamatsu C11440-22C (Camera Link)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>HC PL APO CS 10 x</t>
-  </si>
-  <si>
-    <t>3.1.0.15537</t>
-  </si>
-  <si>
-    <t>J08</t>
-  </si>
-  <si>
-    <t>Job 2</t>
-  </si>
-  <si>
-    <t>0.003680281</t>
-  </si>
-  <si>
-    <t>11.9591347529857</t>
-  </si>
-  <si>
-    <t>0.01412693612638</t>
-  </si>
-  <si>
-    <t>0.00722854122086</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>1342</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>1432</t>
-  </si>
-  <si>
-    <t>1223</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+  <si>
+    <t xml:space="preserve">Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlockIsUsingCameraImageSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDM_Block.BlockName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF Job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VersionNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpimMirrorMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MirrorX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MirrorY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheoCamSensorPixelSizeX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheoCamSensorPixelSizeY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhiteValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GainValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GainStringValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoEMGain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoColorSat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMGainValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffsetValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorSat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoBright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoExposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoContrastGamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BinningText</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LiveBinningText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScanMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUseMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUseModeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z-wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003611539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSuperZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CycleCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CycleTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UseMaxIterationsForT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompleteTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03782248933575E-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsTimeMinimizeEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastTCalcMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValidBeginStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValidEndStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StackCalculationMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StackCalculationModeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System optimized step size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZStackDirectionMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZStackDirectionModeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidirectional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsLinkedShadingEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StageUseMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StagePosX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11608065834011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StagePosY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05824085396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StageRangeX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1270018881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StageRangeY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08300777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StageOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11522100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlipY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SwapXY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoTotalVideoMag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalVideoMag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutofocusChannel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAutofocusOnStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutofocusRedoEveryNTimePoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObjectiveName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC PL APO CS    10x/0.40 DRY  UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObjectiveNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11506285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObjectivePos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroscopeModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMI6000B-CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsInverseMicroscopeModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShutterMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShutterModeSoftware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoIndustryShuttering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumericalAperture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RefractionIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TubeOpticName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TubeOpticPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TubeOpticPortMagPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoChangeSpeedAndPort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedandPortIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedandPort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.098E+08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoColorCapture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoMicroScanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoDualLightMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoLiveBinning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoControlCooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoControlTemperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoFanControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoHotSpotCorrection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoBrightnessCorrection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCMOSReadoutMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgressiveReadoutModePreDelay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgressiveReadoutModeTimeOnChip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgressiveReadoutModeNumStripes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoEnhancedAcquisitionMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrentLightSheetFilterPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BinningValuePrecise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BinningXValuePrecise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BinningYValuePrecise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZStackUseMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NbStepsForEDOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxNbStepsForStartUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalcEDoFfromZStack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalcEDoFfromZStackForStartUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnhancedAcquisitionHDREnable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnhancedAcquisitionHDRAutomatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnhancedAcquisitionHDRContrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnhancedAcquisitionHDRBrightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PortCameraPercentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xDim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yDim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsGray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LiveBinning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColorCaptureMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimAcqMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroscopeFamilyType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CameraName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamamatsu-Flash4-CL-100392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CameraType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CameraNamePure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamamatsu C11440-22C (Camera Link)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CameraColorCaptureMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxChannelCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrentChannelIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSequencerBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSequencerAdvancedBoard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsTriggerCamera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAutoZControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAutoTimeControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAutoFluoControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAutoIntensityControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAutoExposureTimeControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsAutoWaveLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eZUseMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eStackFlowMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsUseSameExposureTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SameExposureTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsHighSpeedModeActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSequencerUseEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSequencerAdvancedUseEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EStageAFCModeForSeqAdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSimpleOperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastFilterWheel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastFilterWheel2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastFilterWheel3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FastFilterWheel4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoTIRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRFPenetrationDepthMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SameTIRFPenetrationDepthIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SameTIRFApertureValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRFManualMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsTIRFFastIlluminationSwitchingActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InTriggerMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutTriggerMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sInTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sInTriggerMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sInTriggerShowInGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sInTriggerRecordInEventlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sInTriggerDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerShowInGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerRecordInEventlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnStartMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnStartShowInGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnStartRecordInEventlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnStartDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnEndMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnEndShowInGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnEndRecordInEventlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_sOutTriggerOnEndDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFCCCameranRoiLeftHightX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFCCCameranRoiLeftHightY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFCCCameranRoiRightButtomX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFCCCameranRoiRightButtomY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFCCCameranRoiIsUsed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDCanDoChangeWavelength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDCanDoCombineWavelengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDMaxWavelengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDCanDoCombiLightSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDUIMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLEDCodedSliderPos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtensionMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISTAutoExpoControlConfig_IsEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISTAutoExpoControlConfig_MaxRegulatorValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISTAutoExpoControlConfig_MinRegulatorValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISTAutoExpoControlConfig_OverexposuredPixelsThreshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoOnlineShadingCorrection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrectionDefinitionState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrectionActivationState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrectionNotificationsEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoDIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoCondenser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnlineShadingCorrection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ObjectiveArtNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC PL APO CS 10 x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bIsDiaphragmStoreModeEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bIsDICStoreModeEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IsSimAcqActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoStageRotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StageRotationAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CanDoColumnTilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColumnTiltAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASXversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.0.15537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003680281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9591347529857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01412693612638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00722854122086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -832,7 +832,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -850,16 +850,297 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -874,1669 +1155,1670 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="B138" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B143" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B144" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B147" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="B149" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B152" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="B156" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B158" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B162" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B168" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="B173" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="B176" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B177" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B178" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="B179" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="B183" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="B184" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="B185" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B186" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="B189" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B191" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="B195" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="B196" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B197" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="B198" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B200" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
         <v>253</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2551,28 +2833,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>255</v>
@@ -2580,207 +2862,207 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>256</v>
@@ -2788,63 +3070,63 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>257</v>
@@ -2852,87 +3134,87 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>258</v>
@@ -2940,7 +3222,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>259</v>
@@ -2948,71 +3230,71 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>260</v>
@@ -3020,391 +3302,391 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
         <v>261</v>
@@ -3412,7 +3694,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
         <v>261</v>
@@ -3420,527 +3702,527 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="B138" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B143" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B144" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B145" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B147" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="B149" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B152" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="B153" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="B156" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B157" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B158" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B162" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B168" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="B173" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="B174" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="B176" t="s">
         <v>262</v>
@@ -3948,7 +4230,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B177" t="s">
         <v>263</v>
@@ -3956,7 +4238,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B178" t="s">
         <v>264</v>
@@ -3964,7 +4246,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="B179" t="s">
         <v>265</v>
@@ -3972,237 +4254,238 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="B183" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="B184" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="B185" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B186" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="B189" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B191" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="B195" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="B196" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B197" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="B198" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B200" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
         <v>253</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>